--- a/_Logging/1MTest.xlsx
+++ b/_Logging/1MTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\School\Fall '21\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28453998-49C1-45C5-AD99-8A10E048400E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245C240D-D61B-4976-9912-2157762FD385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3610" yWindow="-21570" windowWidth="28800" windowHeight="20930" xr2:uid="{DBB72F8F-A8E4-4856-A4CC-F5C345B9272B}"/>
+    <workbookView xWindow="3980" yWindow="-21600" windowWidth="17900" windowHeight="20410" xr2:uid="{DBB72F8F-A8E4-4856-A4CC-F5C345B9272B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="61">
   <si>
     <t>Test #1</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>PRR #2 (2-&gt;1)</t>
-  </si>
-  <si>
-    <t>TX &amp; RX Python</t>
   </si>
   <si>
     <t>Test 2-1</t>
@@ -207,7 +204,19 @@
     <t>TX:C</t>
   </si>
   <si>
-    <t>Notes: C Looks to be the fastest overall TX/RX and in packet generation time, Scapy seems to be much slower overall</t>
+    <t>Py</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>TX &amp; RX Python (Multiprocessing)</t>
+  </si>
+  <si>
+    <t>TX &amp; RX Python (Threading)</t>
   </si>
 </sst>
 </file>
@@ -950,7 +959,444 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Py</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$47:$V$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.62673430100000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27091399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63161500000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8006-4719-B3E9-2532730D6302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$48:$V$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.9879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99868599999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8006-4719-B3E9-2532730D6302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$49:$V$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.64924791100000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65051199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.270839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8006-4719-B3E9-2532730D6302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="510101216"/>
+        <c:axId val="510104168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="510101216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510104168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="510104168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510101216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1493,6 +1939,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1526,6 +2475,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590995</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>640014</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>109955</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E1DFB1C-CEE7-40AD-B926-77EAEB2A28D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1831,10 +2816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D814A51-7097-4E16-B967-9AA2E27538ED}">
-  <dimension ref="A1:T168"/>
+  <dimension ref="A1:AR222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P83" sqref="P83"/>
+    <sheetView tabSelected="1" topLeftCell="Q41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z80" sqref="Z80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,6 +2835,7 @@
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="33" max="34" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2482,7 +3468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="E33">
         <v>30</v>
       </c>
@@ -2502,7 +3488,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>10</v>
       </c>
@@ -2525,7 +3511,7 @@
         <v>0.99665365309537091</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>100</v>
       </c>
@@ -2548,7 +3534,7 @@
         <v>0.99656632711457027</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>1000</v>
       </c>
@@ -2571,7 +3557,7 @@
         <v>0.99598150279679332</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>2000</v>
       </c>
@@ -2594,7 +3580,7 @@
         <v>0.53997685575376941</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2608,52 +3594,126 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AJ41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="P42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S42" s="4"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR42" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>149417</v>
@@ -2696,8 +3756,58 @@
         <f>O43/N43</f>
         <v>0.63568488497555642</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1">
+        <v>116917</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>49160</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>115421</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>49486</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>60</v>
+      </c>
+      <c r="AG43" s="1">
+        <f t="shared" ref="AG43:AG52" si="1">AE43/AB43</f>
+        <v>0.42325752456871113</v>
+      </c>
+      <c r="AH43" s="1">
+        <f t="shared" ref="AH43:AH52" si="2">AC43/AD43</f>
+        <v>0.42591902686686134</v>
+      </c>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1">
+        <v>123088</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>49450</v>
+      </c>
+      <c r="AN43" s="1">
+        <v>112107</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>49301</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>60</v>
+      </c>
+      <c r="AQ43" s="1">
+        <f t="shared" ref="AQ43:AQ52" si="3">AO43/AL43</f>
+        <v>0.40053457688808008</v>
+      </c>
+      <c r="AR43" s="1">
+        <f t="shared" ref="AR43:AR52" si="4">AM43/AN43</f>
+        <v>0.44109645249627588</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
         <v>151141</v>
@@ -2709,7 +3819,7 @@
         <v>60</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" ref="E44:E52" si="1">C44/B44</f>
+        <f t="shared" ref="E44:E52" si="5">C44/B44</f>
         <v>0.62924686220152048</v>
       </c>
       <c r="G44" s="1"/>
@@ -2723,7 +3833,7 @@
         <v>60</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" ref="K44:K52" si="2">I44/H44</f>
+        <f t="shared" ref="K44:K52" si="6">I44/H44</f>
         <v>0.29574591324494787</v>
       </c>
       <c r="M44" s="1"/>
@@ -2740,10 +3850,60 @@
         <f>O44/N44</f>
         <v>0.64121516741813878</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1">
+        <v>128640</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>49450</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>135640</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>49357</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>60</v>
+      </c>
+      <c r="AG44" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38368314676616916</v>
+      </c>
+      <c r="AH44" s="1">
+        <f t="shared" si="2"/>
+        <v>0.36456797404895314</v>
+      </c>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1">
+        <v>128402</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>48725</v>
+      </c>
+      <c r="AN44" s="1">
+        <v>110249</v>
+      </c>
+      <c r="AO44" s="1">
+        <v>48617</v>
+      </c>
+      <c r="AP44" s="1">
+        <v>60</v>
+      </c>
+      <c r="AQ44" s="1">
+        <f t="shared" si="3"/>
+        <v>0.37863117396925283</v>
+      </c>
+      <c r="AR44" s="1">
+        <f t="shared" si="4"/>
+        <v>0.44195412203285289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1">
         <v>148251</v>
@@ -2755,11 +3915,11 @@
         <v>60</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.64139870894631401</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H45" s="1">
         <v>149903</v>
@@ -2771,11 +3931,11 @@
         <v>60</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.2959046850296525</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N45" s="1">
         <v>149906</v>
@@ -2787,13 +3947,63 @@
         <v>60</v>
       </c>
       <c r="Q45" s="1">
-        <f t="shared" ref="Q44:Q52" si="3">O45/N45</f>
+        <f t="shared" ref="Q45:Q52" si="7">O45/N45</f>
         <v>0.63631875975611385</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1">
+        <v>128870</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>48971</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>117693</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>49168</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>60</v>
+      </c>
+      <c r="AG45" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38153177620858231</v>
+      </c>
+      <c r="AH45" s="1">
+        <f t="shared" si="2"/>
+        <v>0.41609101645807312</v>
+      </c>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1">
+        <v>120171</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>49138</v>
+      </c>
+      <c r="AN45" s="1">
+        <v>122620</v>
+      </c>
+      <c r="AO45" s="1">
+        <v>48889</v>
+      </c>
+      <c r="AP45" s="1">
+        <v>60</v>
+      </c>
+      <c r="AQ45" s="1">
+        <f t="shared" si="3"/>
+        <v>0.40682860257466441</v>
+      </c>
+      <c r="AR45" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4007339748817485</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="1">
         <v>154957</v>
@@ -2805,11 +4015,11 @@
         <v>60</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.6134088811734868</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46" s="1">
         <v>165953</v>
@@ -2821,11 +4031,11 @@
         <v>60</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.25353563960880493</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N46" s="1">
         <v>148927</v>
@@ -2837,13 +4047,63 @@
         <v>60</v>
       </c>
       <c r="Q46" s="1">
+        <f t="shared" si="7"/>
+        <v>0.64096503656153681</v>
+      </c>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1">
+        <v>118541</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>49418</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>113930</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>49074</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>60</v>
+      </c>
+      <c r="AG46" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4139833475337647</v>
+      </c>
+      <c r="AH46" s="1">
+        <f t="shared" si="2"/>
+        <v>0.43375757043798824</v>
+      </c>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1">
+        <v>112542</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>49027</v>
+      </c>
+      <c r="AN46" s="1">
+        <v>127075</v>
+      </c>
+      <c r="AO46" s="1">
+        <v>48489</v>
+      </c>
+      <c r="AP46" s="1">
+        <v>60</v>
+      </c>
+      <c r="AQ46" s="1">
         <f t="shared" si="3"/>
-        <v>0.64096503656153681</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.43085248174015034</v>
+      </c>
+      <c r="AR46" s="1">
+        <f t="shared" si="4"/>
+        <v>0.38581152862482787</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="1">
         <v>156640</v>
@@ -2855,11 +4115,11 @@
         <v>60</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.60763534218590398</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H47" s="1">
         <v>153911</v>
@@ -2871,11 +4131,11 @@
         <v>60</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.26018283293591749</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N47" s="1">
         <v>150385</v>
@@ -2887,13 +4147,75 @@
         <v>60</v>
       </c>
       <c r="Q47" s="1">
+        <f t="shared" si="7"/>
+        <v>0.63468431027030625</v>
+      </c>
+      <c r="S47" t="s">
+        <v>56</v>
+      </c>
+      <c r="T47">
+        <v>0.62673430100000005</v>
+      </c>
+      <c r="U47">
+        <v>0.27091399999999999</v>
+      </c>
+      <c r="V47">
+        <v>0.63161500000000004</v>
+      </c>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1">
+        <v>112729</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>49276</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>110793</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>49375</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>60</v>
+      </c>
+      <c r="AG47" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43799732100879102</v>
+      </c>
+      <c r="AH47" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44475734026517921</v>
+      </c>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1">
+        <v>127841</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>48750</v>
+      </c>
+      <c r="AN47" s="1">
+        <v>126392</v>
+      </c>
+      <c r="AO47" s="1">
+        <v>48962</v>
+      </c>
+      <c r="AP47" s="1">
+        <v>60</v>
+      </c>
+      <c r="AQ47" s="1">
         <f t="shared" si="3"/>
-        <v>0.63468431027030625</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.38299137209502426</v>
+      </c>
+      <c r="AR47" s="1">
+        <f t="shared" si="4"/>
+        <v>0.38570479144249636</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="1">
         <v>149487</v>
@@ -2905,11 +4227,11 @@
         <v>60</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.6364366132172028</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H48" s="1">
         <v>155695</v>
@@ -2921,11 +4243,11 @@
         <v>60</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.2776839333311924</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N48" s="1">
         <v>151155</v>
@@ -2937,11 +4259,73 @@
         <v>60</v>
       </c>
       <c r="Q48" s="1">
+        <f t="shared" si="7"/>
+        <v>0.63140484932684993</v>
+      </c>
+      <c r="S48" t="s">
+        <v>57</v>
+      </c>
+      <c r="T48">
+        <v>0.9879</v>
+      </c>
+      <c r="U48">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="V48">
+        <v>0.99868599999999996</v>
+      </c>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1">
+        <v>122020</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>48514</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>111709</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>48354</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>60</v>
+      </c>
+      <c r="AG48" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39627929847565974</v>
+      </c>
+      <c r="AH48" s="1">
+        <f t="shared" si="2"/>
+        <v>0.43428909040453323</v>
+      </c>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1">
+        <v>128736</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>49042</v>
+      </c>
+      <c r="AN48" s="1">
+        <v>131884</v>
+      </c>
+      <c r="AO48" s="1">
+        <v>48985</v>
+      </c>
+      <c r="AP48" s="1">
+        <v>60</v>
+      </c>
+      <c r="AQ48" s="1">
         <f t="shared" si="3"/>
-        <v>0.63140484932684993</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.38050739497887148</v>
+      </c>
+      <c r="AR48" s="1">
+        <f t="shared" si="4"/>
+        <v>0.37185708653058747</v>
+      </c>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>148658</v>
@@ -2953,7 +4337,7 @@
         <v>60</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.6395821281061228</v>
       </c>
       <c r="G49" s="1"/>
@@ -2967,7 +4351,7 @@
         <v>60</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.25279215954523476</v>
       </c>
       <c r="M49" s="1"/>
@@ -2981,11 +4365,73 @@
         <v>60</v>
       </c>
       <c r="Q49" s="1">
+        <f t="shared" si="7"/>
+        <v>0.6325965570002583</v>
+      </c>
+      <c r="S49" t="s">
+        <v>58</v>
+      </c>
+      <c r="T49">
+        <v>0.64924791100000001</v>
+      </c>
+      <c r="U49">
+        <v>0.65051199999999998</v>
+      </c>
+      <c r="V49">
+        <v>0.270839</v>
+      </c>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1">
+        <v>129063</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>48813</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>129300</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>48902</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>60</v>
+      </c>
+      <c r="AG49" s="1">
+        <f t="shared" si="1"/>
+        <v>0.37890022702091225</v>
+      </c>
+      <c r="AH49" s="1">
+        <f t="shared" si="2"/>
+        <v>0.37751740139211137</v>
+      </c>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1">
+        <v>115162</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>48889</v>
+      </c>
+      <c r="AN49" s="1">
+        <v>112023</v>
+      </c>
+      <c r="AO49" s="1">
+        <v>49405</v>
+      </c>
+      <c r="AP49" s="1">
+        <v>60</v>
+      </c>
+      <c r="AQ49" s="1">
         <f t="shared" si="3"/>
-        <v>0.6325965570002583</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.42900435907677881</v>
+      </c>
+      <c r="AR49" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4364193067495068</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>156746</v>
@@ -2997,7 +4443,7 @@
         <v>60</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.60670766718129965</v>
       </c>
       <c r="G50" s="1"/>
@@ -3011,7 +4457,7 @@
         <v>60</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.28192974525341702</v>
       </c>
       <c r="M50" s="1"/>
@@ -3025,11 +4471,61 @@
         <v>60</v>
       </c>
       <c r="Q50" s="1">
+        <f t="shared" si="7"/>
+        <v>0.61963042800747969</v>
+      </c>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1">
+        <v>120443</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>49443</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>117919</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>49337</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>60</v>
+      </c>
+      <c r="AG50" s="1">
+        <f t="shared" si="1"/>
+        <v>0.40962945127570716</v>
+      </c>
+      <c r="AH50" s="1">
+        <f t="shared" si="2"/>
+        <v>0.41929629661038509</v>
+      </c>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1">
+        <v>120346</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>48238</v>
+      </c>
+      <c r="AN50" s="1">
+        <v>118092</v>
+      </c>
+      <c r="AO50" s="1">
+        <v>48670</v>
+      </c>
+      <c r="AP50" s="1">
+        <v>60</v>
+      </c>
+      <c r="AQ50" s="1">
         <f t="shared" si="3"/>
-        <v>0.61963042800747969</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.40441726355674473</v>
+      </c>
+      <c r="AR50" s="1">
+        <f t="shared" si="4"/>
+        <v>0.40847813569081731</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>148621</v>
@@ -3041,7 +4537,7 @@
         <v>60</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.63989611158584592</v>
       </c>
       <c r="G51" s="1"/>
@@ -3055,7 +4551,7 @@
         <v>60</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.2628438439409122</v>
       </c>
       <c r="M51" s="1"/>
@@ -3069,11 +4565,61 @@
         <v>60</v>
       </c>
       <c r="Q51" s="1">
+        <f t="shared" si="7"/>
+        <v>0.62281852903731272</v>
+      </c>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1">
+        <v>123335</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>49131</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>129777</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>49381</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>60</v>
+      </c>
+      <c r="AG51" s="1">
+        <f t="shared" si="1"/>
+        <v>0.40038107593140632</v>
+      </c>
+      <c r="AH51" s="1">
+        <f t="shared" si="2"/>
+        <v>0.37858017984696823</v>
+      </c>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1">
+        <v>121834</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>48966</v>
+      </c>
+      <c r="AN51" s="1">
+        <v>121307</v>
+      </c>
+      <c r="AO51" s="1">
+        <v>49200</v>
+      </c>
+      <c r="AP51" s="1">
+        <v>60</v>
+      </c>
+      <c r="AQ51" s="1">
         <f t="shared" si="3"/>
-        <v>0.62281852903731272</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.4038281596270335</v>
+      </c>
+      <c r="AR51" s="1">
+        <f t="shared" si="4"/>
+        <v>0.40365354019141519</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>154241</v>
@@ -3085,7 +4631,7 @@
         <v>60</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.61586089301806912</v>
       </c>
       <c r="G52" s="1"/>
@@ -3099,7 +4645,7 @@
         <v>60</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.24388923911362745</v>
       </c>
       <c r="M52" s="1"/>
@@ -3113,13 +4659,63 @@
         <v>60</v>
       </c>
       <c r="Q52" s="1">
+        <f t="shared" si="7"/>
+        <v>0.62083035075161064</v>
+      </c>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1">
+        <v>111582</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>48871</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>121693</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>48897</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>60</v>
+      </c>
+      <c r="AG52" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43821584126472013</v>
+      </c>
+      <c r="AH52" s="1">
+        <f t="shared" si="2"/>
+        <v>0.40159253202731465</v>
+      </c>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1">
+        <v>122200</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>49021</v>
+      </c>
+      <c r="AN52" s="1">
+        <v>120998</v>
+      </c>
+      <c r="AO52" s="1">
+        <v>49321</v>
+      </c>
+      <c r="AP52" s="1">
+        <v>60</v>
+      </c>
+      <c r="AQ52" s="1">
         <f t="shared" si="3"/>
-        <v>0.62083035075161064</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.40360883797054009</v>
+      </c>
+      <c r="AR52" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4051389279161639</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="5">
         <f>AVERAGE(B43,B44, B45, B46, B47, B48, B49, B50, B51,B52)</f>
@@ -3135,7 +4731,7 @@
         <v>0.6267343007571593</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H53" s="5">
         <f>AVERAGE(H43,H44, H45, H46, H47, H48, H49, H50, H51,H52)</f>
@@ -3151,7 +4747,7 @@
         <v>0.27091382533591013</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N53" s="5">
         <f>AVERAGE(N43:N52)</f>
@@ -3163,13 +4759,65 @@
       </c>
       <c r="P53" s="5"/>
       <c r="Q53" s="5">
-        <f t="shared" ref="Q53" si="4">AVERAGE(Q43,Q44, Q45, Q46, Q47, Q48, Q49, Q50, Q51,Q52)</f>
+        <f t="shared" ref="Q53" si="8">AVERAGE(Q43,Q44, Q45, Q46, Q47, Q48, Q49, Q50, Q51,Q52)</f>
         <v>0.63161488731051629</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB53" s="5">
+        <f>AVERAGE(AB43:AB52)</f>
+        <v>121214</v>
+      </c>
+      <c r="AC53" s="5">
+        <f t="shared" ref="AC53:AE53" si="9">AVERAGE(AC43:AC52)</f>
+        <v>49104.7</v>
+      </c>
+      <c r="AD53" s="5">
+        <f t="shared" si="9"/>
+        <v>120387.5</v>
+      </c>
+      <c r="AE53" s="5">
+        <f t="shared" si="9"/>
+        <v>49133.1</v>
+      </c>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5">
+        <f>AVERAGE(AG43:AG52)</f>
+        <v>0.40638590100544236</v>
+      </c>
+      <c r="AH53" s="5">
+        <f>AVERAGE(AH43:AH52)</f>
+        <v>0.40963684283583685</v>
+      </c>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL53" s="5">
+        <f>AVERAGE(AL43:AL52)</f>
+        <v>122032.2</v>
+      </c>
+      <c r="AM53" s="5">
+        <f t="shared" ref="AM53:AO53" si="10">AVERAGE(AM43:AM52)</f>
+        <v>48924.6</v>
+      </c>
+      <c r="AN53" s="5">
+        <f t="shared" si="10"/>
+        <v>120274.7</v>
+      </c>
+      <c r="AO53" s="5">
+        <f t="shared" si="10"/>
+        <v>48983.9</v>
+      </c>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="5"/>
+      <c r="AR53" s="5"/>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="5">
         <f>(B53 / D43)</f>
@@ -3182,7 +4830,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="G54" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" s="5">
         <f>(H53 / J43)</f>
@@ -3195,7 +4843,7 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="M54" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N54" s="5">
         <f>(N53 / P43)</f>
@@ -3207,57 +4855,125 @@
       </c>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB54" s="5">
+        <f>AB53/60</f>
+        <v>2020.2333333333333</v>
+      </c>
+      <c r="AC54" s="5">
+        <f t="shared" ref="AC54:AE54" si="11">AC53/60</f>
+        <v>818.41166666666663</v>
+      </c>
+      <c r="AD54" s="5">
+        <f t="shared" si="11"/>
+        <v>2006.4583333333333</v>
+      </c>
+      <c r="AE54" s="5">
+        <f t="shared" si="11"/>
+        <v>818.88499999999999</v>
+      </c>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL54" s="5">
+        <f>AL53/60</f>
+        <v>2033.87</v>
+      </c>
+      <c r="AM54" s="5">
+        <f t="shared" ref="AM54:AO54" si="12">AM53/60</f>
+        <v>815.41</v>
+      </c>
+      <c r="AN54" s="5">
+        <f t="shared" si="12"/>
+        <v>2004.5783333333334</v>
+      </c>
+      <c r="AO54" s="5">
+        <f t="shared" si="12"/>
+        <v>816.39833333333331</v>
+      </c>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="5"/>
+      <c r="AR54" s="5"/>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="D57" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="J57" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="L57" s="4"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O57" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O57" s="7" t="s">
+      <c r="P57" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P57" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Z57" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA57" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2">
         <v>43454</v>
@@ -3283,7 +4999,7 @@
         <v>60</v>
       </c>
       <c r="K58" s="7">
-        <f t="shared" ref="K58:K67" si="5">I58/H58</f>
+        <f t="shared" ref="K58:K67" si="13">I58/H58</f>
         <v>0.99868977565281358</v>
       </c>
       <c r="L58" s="4"/>
@@ -3301,8 +5017,33 @@
         <f>I58/H58</f>
         <v>0.99868977565281358</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB58" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC58" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH58" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2">
         <v>43195</v>
@@ -3314,7 +5055,7 @@
         <v>60</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" ref="E59:E67" si="6">C59/B59</f>
+        <f t="shared" ref="E59:E67" si="14">C59/B59</f>
         <v>0.98712813983099901</v>
       </c>
       <c r="G59" s="7"/>
@@ -3328,7 +5069,7 @@
         <v>60</v>
       </c>
       <c r="K59" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.99837017652595095</v>
       </c>
       <c r="L59" s="4"/>
@@ -3346,10 +5087,35 @@
         <f>O59/N59</f>
         <v>0.99831027081335344</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7">
+        <v>54212</v>
+      </c>
+      <c r="AC59" s="7">
+        <v>5527</v>
+      </c>
+      <c r="AD59" s="7">
+        <v>5701</v>
+      </c>
+      <c r="AE59" s="7">
+        <v>52116</v>
+      </c>
+      <c r="AF59" s="7">
+        <v>60</v>
+      </c>
+      <c r="AG59" s="7">
+        <f t="shared" ref="AG59:AG68" si="15">AE59/AB59</f>
+        <v>0.96133697336383084</v>
+      </c>
+      <c r="AH59" s="7">
+        <f t="shared" ref="AH59:AH68" si="16">AC59/AD59</f>
+        <v>0.96947903876512898</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60" s="2">
         <v>38724</v>
@@ -3361,11 +5127,11 @@
         <v>60</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.98827600454498499</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H60" s="7">
         <v>43320</v>
@@ -3377,12 +5143,12 @@
         <v>60</v>
       </c>
       <c r="K60" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.99852262234533706</v>
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N60" s="7">
         <v>43492</v>
@@ -3394,13 +5160,38 @@
         <v>60</v>
       </c>
       <c r="Q60" s="7">
-        <f t="shared" ref="Q59:Q67" si="7">O60/N60</f>
+        <f t="shared" ref="Q60:Q67" si="17">O60/N60</f>
         <v>0.998758392348018</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7">
+        <v>57150</v>
+      </c>
+      <c r="AC60" s="7">
+        <v>2629</v>
+      </c>
+      <c r="AD60" s="7">
+        <v>3183</v>
+      </c>
+      <c r="AE60" s="7">
+        <v>53396</v>
+      </c>
+      <c r="AF60" s="7">
+        <v>60</v>
+      </c>
+      <c r="AG60" s="7">
+        <f t="shared" si="15"/>
+        <v>0.93431321084864394</v>
+      </c>
+      <c r="AH60" s="7">
+        <f t="shared" si="16"/>
+        <v>0.82595036129437638</v>
+      </c>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" s="2">
         <v>39175</v>
@@ -3412,11 +5203,11 @@
         <v>60</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.98904913848117426</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H61" s="7">
         <v>43872</v>
@@ -3428,12 +5219,12 @@
         <v>60</v>
       </c>
       <c r="K61" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.99881473377097008</v>
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N61" s="7">
         <v>39075</v>
@@ -3445,13 +5236,38 @@
         <v>60</v>
       </c>
       <c r="Q61" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.99897632757517596</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7">
+        <v>58107</v>
+      </c>
+      <c r="AC61" s="7">
+        <v>3175</v>
+      </c>
+      <c r="AD61" s="7">
+        <v>3277</v>
+      </c>
+      <c r="AE61" s="7">
+        <v>54728</v>
+      </c>
+      <c r="AF61" s="7">
+        <v>60</v>
+      </c>
+      <c r="AG61" s="7">
+        <f t="shared" si="15"/>
+        <v>0.94184865850930177</v>
+      </c>
+      <c r="AH61" s="7">
+        <f t="shared" si="16"/>
+        <v>0.96887397009459875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62" s="2">
         <v>39313</v>
@@ -3463,11 +5279,11 @@
         <v>60</v>
       </c>
       <c r="E62" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.9918093251596164</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H62" s="7">
         <v>44287</v>
@@ -3479,12 +5295,12 @@
         <v>60</v>
       </c>
       <c r="K62" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.9986903606024341</v>
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N62" s="7">
         <v>41049</v>
@@ -3496,13 +5312,38 @@
         <v>60</v>
       </c>
       <c r="Q62" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.99851397110770057</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7">
+        <v>55440</v>
+      </c>
+      <c r="AC62" s="7">
+        <v>5272</v>
+      </c>
+      <c r="AD62" s="7">
+        <v>6110</v>
+      </c>
+      <c r="AE62" s="7">
+        <v>52209</v>
+      </c>
+      <c r="AF62" s="7">
+        <v>60</v>
+      </c>
+      <c r="AG62" s="7">
+        <f t="shared" si="15"/>
+        <v>0.94172077922077924</v>
+      </c>
+      <c r="AH62" s="7">
+        <f t="shared" si="16"/>
+        <v>0.86284779050736493</v>
+      </c>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B63" s="2">
         <v>38881</v>
@@ -3514,11 +5355,11 @@
         <v>60</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.98137907975617911</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H63" s="7">
         <v>40805</v>
@@ -3530,12 +5371,12 @@
         <v>60</v>
       </c>
       <c r="K63" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.99860311236368093</v>
       </c>
       <c r="L63" s="4"/>
       <c r="M63" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N63" s="7">
         <v>43057</v>
@@ -3547,11 +5388,36 @@
         <v>60</v>
       </c>
       <c r="Q63" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.99879229858095087</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7">
+        <v>58055</v>
+      </c>
+      <c r="AC63" s="7">
+        <v>2280</v>
+      </c>
+      <c r="AD63" s="7">
+        <v>2406</v>
+      </c>
+      <c r="AE63" s="7">
+        <v>54394</v>
+      </c>
+      <c r="AF63" s="7">
+        <v>60</v>
+      </c>
+      <c r="AG63" s="7">
+        <f t="shared" si="15"/>
+        <v>0.93693910946516235</v>
+      </c>
+      <c r="AH63" s="7">
+        <f t="shared" si="16"/>
+        <v>0.94763092269326688</v>
+      </c>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2">
         <v>38794</v>
@@ -3563,7 +5429,7 @@
         <v>60</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.99077176883023144</v>
       </c>
       <c r="G64" s="7"/>
@@ -3577,7 +5443,7 @@
         <v>60</v>
       </c>
       <c r="K64" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.99824583704080339</v>
       </c>
       <c r="L64" s="4"/>
@@ -3592,11 +5458,36 @@
         <v>60</v>
       </c>
       <c r="Q64" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.9985850240774129</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7">
+        <v>56293</v>
+      </c>
+      <c r="AC64" s="7">
+        <v>3504</v>
+      </c>
+      <c r="AD64" s="7">
+        <v>3788</v>
+      </c>
+      <c r="AE64" s="7">
+        <v>53902</v>
+      </c>
+      <c r="AF64" s="7">
+        <v>60</v>
+      </c>
+      <c r="AG64" s="7">
+        <f t="shared" si="15"/>
+        <v>0.95752580249764629</v>
+      </c>
+      <c r="AH64" s="7">
+        <f t="shared" si="16"/>
+        <v>0.925026399155227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2">
         <v>44121</v>
@@ -3608,7 +5499,7 @@
         <v>60</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.98637836857732142</v>
       </c>
       <c r="G65" s="7"/>
@@ -3622,7 +5513,7 @@
         <v>60</v>
       </c>
       <c r="K65" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.99844619966334325</v>
       </c>
       <c r="L65" s="4"/>
@@ -3637,11 +5528,36 @@
         <v>60</v>
       </c>
       <c r="Q65" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.99841665308403382</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7">
+        <v>54231</v>
+      </c>
+      <c r="AC65" s="7">
+        <v>3829</v>
+      </c>
+      <c r="AD65" s="7">
+        <v>4003</v>
+      </c>
+      <c r="AE65" s="7">
+        <v>51943</v>
+      </c>
+      <c r="AF65" s="7">
+        <v>60</v>
+      </c>
+      <c r="AG65" s="7">
+        <f t="shared" si="15"/>
+        <v>0.95781010860946691</v>
+      </c>
+      <c r="AH65" s="7">
+        <f t="shared" si="16"/>
+        <v>0.95653260054958777</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2">
         <v>39369</v>
@@ -3653,7 +5569,7 @@
         <v>60</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.98757905966623483</v>
       </c>
       <c r="G66" s="7"/>
@@ -3667,7 +5583,7 @@
         <v>60</v>
       </c>
       <c r="K66" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.99835166250289742</v>
       </c>
       <c r="L66" s="4"/>
@@ -3682,11 +5598,36 @@
         <v>60</v>
       </c>
       <c r="Q66" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.99886895275307186</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7">
+        <v>57243</v>
+      </c>
+      <c r="AC66" s="7">
+        <v>2632</v>
+      </c>
+      <c r="AD66" s="7">
+        <v>3021</v>
+      </c>
+      <c r="AE66" s="7">
+        <v>54930</v>
+      </c>
+      <c r="AF66" s="7">
+        <v>60</v>
+      </c>
+      <c r="AG66" s="7">
+        <f t="shared" si="15"/>
+        <v>0.95959331271945913</v>
+      </c>
+      <c r="AH66" s="7">
+        <f t="shared" si="16"/>
+        <v>0.87123469049983449</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2">
         <v>38785</v>
@@ -3698,7 +5639,7 @@
         <v>60</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.98888745649091148</v>
       </c>
       <c r="G67" s="7"/>
@@ -3712,7 +5653,7 @@
         <v>60</v>
       </c>
       <c r="K67" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.99850481908310906</v>
       </c>
       <c r="L67" s="4"/>
@@ -3727,13 +5668,38 @@
         <v>60</v>
       </c>
       <c r="Q67" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.99894688644688645</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7">
+        <v>56856</v>
+      </c>
+      <c r="AC67" s="7">
+        <v>3389</v>
+      </c>
+      <c r="AD67" s="7">
+        <v>4012</v>
+      </c>
+      <c r="AE67" s="7">
+        <v>52839</v>
+      </c>
+      <c r="AF67" s="7">
+        <v>60</v>
+      </c>
+      <c r="AG67" s="7">
+        <f t="shared" si="15"/>
+        <v>0.92934782608695654</v>
+      </c>
+      <c r="AH67" s="7">
+        <f t="shared" si="16"/>
+        <v>0.844715852442672</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B68" s="8">
         <f>AVERAGE(B58,B59, B60, B61, B62, B63, B64, B65, B66,B67)</f>
@@ -3749,7 +5715,7 @@
         <v>0.98792686510904948</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H68" s="8">
         <f>AVERAGE(H58:H67)</f>
@@ -3766,7 +5732,7 @@
       </c>
       <c r="L68" s="4"/>
       <c r="M68" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N68" s="8">
         <f>AVERAGE(N58:N67)</f>
@@ -3781,10 +5747,35 @@
         <f>AVERAGE(Q58:Q67)</f>
         <v>0.99868585524394171</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7">
+        <v>54836</v>
+      </c>
+      <c r="AC68" s="7">
+        <v>4323</v>
+      </c>
+      <c r="AD68" s="7">
+        <v>4589</v>
+      </c>
+      <c r="AE68" s="7">
+        <v>51879</v>
+      </c>
+      <c r="AF68" s="7">
+        <v>60</v>
+      </c>
+      <c r="AG68" s="7">
+        <f t="shared" si="15"/>
+        <v>0.94607557079290971</v>
+      </c>
+      <c r="AH68" s="7">
+        <f t="shared" si="16"/>
+        <v>0.9420353018086729</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B69" s="8">
         <f>(B68 / D58)</f>
@@ -3797,7 +5788,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="G69" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69" s="8">
         <f>(H68 / J58)</f>
@@ -3811,7 +5802,7 @@
       <c r="K69" s="8"/>
       <c r="L69" s="4"/>
       <c r="M69" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N69" s="8">
         <f>(N68 / P58)</f>
@@ -3823,57 +5814,101 @@
       </c>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7">
+        <f>AVERAGE(AB59:AB68)</f>
+        <v>56242.3</v>
+      </c>
+      <c r="AC69" s="7">
+        <f t="shared" ref="AC69:AE69" si="18">AVERAGE(AC59:AC68)</f>
+        <v>3656</v>
+      </c>
+      <c r="AD69" s="7">
+        <f t="shared" si="18"/>
+        <v>4009</v>
+      </c>
+      <c r="AE69" s="7">
+        <f t="shared" si="18"/>
+        <v>53233.599999999999</v>
+      </c>
+      <c r="AF69" s="7"/>
+      <c r="AG69" s="7"/>
+      <c r="AH69" s="7"/>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="7">
+        <f>AB69/60</f>
+        <v>937.37166666666667</v>
+      </c>
+      <c r="AC70" s="7">
+        <f t="shared" ref="AC70:AE70" si="19">AC69/60</f>
+        <v>60.93333333333333</v>
+      </c>
+      <c r="AD70" s="7">
+        <f>AD69/60</f>
+        <v>66.816666666666663</v>
+      </c>
+      <c r="AE70" s="7">
+        <f t="shared" si="19"/>
+        <v>887.22666666666669</v>
+      </c>
+      <c r="AF70" s="7"/>
+      <c r="AG70" s="7"/>
+      <c r="AH70" s="7"/>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="J72" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="L72" s="4"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O72" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="3" t="s">
+      <c r="P72" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q72" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3">
         <v>154936</v>
@@ -3918,7 +5953,7 @@
         <v>0.26350539082709701</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3">
         <v>164326</v>
@@ -3930,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="E74" s="3">
-        <f t="shared" ref="E74:E82" si="8">C74/B74</f>
+        <f t="shared" ref="E74:E82" si="20">C74/B74</f>
         <v>0.62690018621520638</v>
       </c>
       <c r="G74" s="3"/>
@@ -3944,7 +5979,7 @@
         <v>60</v>
       </c>
       <c r="K74" s="3">
-        <f t="shared" ref="K74:K82" si="9">I74/H74</f>
+        <f t="shared" ref="K74:K82" si="21">I74/H74</f>
         <v>0.64314767679792384</v>
       </c>
       <c r="L74" s="4"/>
@@ -3963,9 +5998,9 @@
         <v>0.27980987136447166</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B75" s="3">
         <v>155460</v>
@@ -3977,11 +6012,11 @@
         <v>60</v>
       </c>
       <c r="E75" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.65803422102148468</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H75" s="3">
         <v>155629</v>
@@ -3993,12 +6028,12 @@
         <v>60</v>
       </c>
       <c r="K75" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.6556040326674335</v>
       </c>
       <c r="L75" s="4"/>
       <c r="M75" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N75" s="3">
         <v>153617</v>
@@ -4010,13 +6045,13 @@
         <v>60</v>
       </c>
       <c r="Q75" s="3">
-        <f t="shared" ref="Q74:Q82" si="10">O75/N75</f>
+        <f t="shared" ref="Q75:Q82" si="22">O75/N75</f>
         <v>0.28193494209625236</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B76" s="3">
         <v>159334</v>
@@ -4028,11 +6063,11 @@
         <v>60</v>
       </c>
       <c r="E76" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.64344709854770488</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H76" s="3">
         <v>153235</v>
@@ -4044,12 +6079,12 @@
         <v>60</v>
       </c>
       <c r="K76" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.66645348647502201</v>
       </c>
       <c r="L76" s="4"/>
       <c r="M76" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N76" s="3">
         <v>154539</v>
@@ -4061,13 +6096,13 @@
         <v>60</v>
       </c>
       <c r="Q76" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.28417422139395232</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B77" s="3">
         <v>162086</v>
@@ -4079,11 +6114,11 @@
         <v>60</v>
       </c>
       <c r="E77" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.630467776365633</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H77" s="3">
         <v>156614</v>
@@ -4095,12 +6130,12 @@
         <v>60</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.66090515535009642</v>
       </c>
       <c r="L77" s="4"/>
       <c r="M77" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N77" s="3">
         <v>155536</v>
@@ -4112,13 +6147,13 @@
         <v>60</v>
       </c>
       <c r="Q77" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.27936297705997326</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B78" s="3">
         <v>153438</v>
@@ -4130,11 +6165,11 @@
         <v>60</v>
       </c>
       <c r="E78" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.66884995894107069</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H78" s="3">
         <v>161496</v>
@@ -4146,12 +6181,12 @@
         <v>60</v>
       </c>
       <c r="K78" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.632795858720959</v>
       </c>
       <c r="L78" s="4"/>
       <c r="M78" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N78" s="3">
         <v>169093</v>
@@ -4163,11 +6198,11 @@
         <v>60</v>
       </c>
       <c r="Q78" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.23992122678052905</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3">
         <v>155470</v>
@@ -4179,7 +6214,7 @@
         <v>60</v>
       </c>
       <c r="E79" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.65689200488840294</v>
       </c>
       <c r="G79" s="3"/>
@@ -4193,7 +6228,7 @@
         <v>60</v>
       </c>
       <c r="K79" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.66005972160147164</v>
       </c>
       <c r="L79" s="4"/>
@@ -4208,11 +6243,11 @@
         <v>60</v>
       </c>
       <c r="Q79" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.27255937863977708</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3">
         <v>157383</v>
@@ -4224,7 +6259,7 @@
         <v>60</v>
       </c>
       <c r="E80" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.65156338359289123</v>
       </c>
       <c r="G80" s="3"/>
@@ -4238,7 +6273,7 @@
         <v>60</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.64798631252226124</v>
       </c>
       <c r="L80" s="4"/>
@@ -4253,7 +6288,7 @@
         <v>60</v>
       </c>
       <c r="Q80" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.27356248113492304</v>
       </c>
     </row>
@@ -4269,7 +6304,7 @@
         <v>60</v>
       </c>
       <c r="E81" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.64616656777467774</v>
       </c>
       <c r="G81" s="3"/>
@@ -4283,7 +6318,7 @@
         <v>60</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.6293311498017583</v>
       </c>
       <c r="L81" s="4"/>
@@ -4298,7 +6333,7 @@
         <v>60</v>
       </c>
       <c r="Q81" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.27088358512123906</v>
       </c>
     </row>
@@ -4314,7 +6349,7 @@
         <v>60</v>
       </c>
       <c r="E82" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.65015635969110985</v>
       </c>
       <c r="G82" s="3"/>
@@ -4328,7 +6363,7 @@
         <v>60</v>
       </c>
       <c r="K82" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.65689601974699163</v>
       </c>
       <c r="L82" s="4"/>
@@ -4343,13 +6378,13 @@
         <v>60</v>
       </c>
       <c r="Q82" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.26267957927142122</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B83" s="10">
         <f>AVERAGE(B73,B74, B75, B76, B77, B78, B79, B80, B81,B82)</f>
@@ -4365,7 +6400,7 @@
         <v>0.64924791060648768</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H83" s="10">
         <f>AVERAGE(H73,H74, H75, H76, H77, H78, H79, H80, H81,H82)</f>
@@ -4382,7 +6417,7 @@
       </c>
       <c r="L83" s="4"/>
       <c r="M83" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N83" s="10">
         <f>AVERAGE(N73,N74, N75, N76, N77, N78, N79, N80, N81,N82)</f>
@@ -4394,13 +6429,13 @@
       </c>
       <c r="P83" s="10"/>
       <c r="Q83" s="10">
-        <f t="shared" ref="Q83" si="11">AVERAGE(Q73,Q74, Q75, Q76, Q77, Q78, Q79, Q80, Q81,Q82)</f>
+        <f t="shared" ref="Q83" si="23">AVERAGE(Q73,Q74, Q75, Q76, Q77, Q78, Q79, Q80, Q81,Q82)</f>
         <v>0.27083936536896364</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B84" s="10">
         <f>(B83 / D73)</f>
@@ -4413,7 +6448,7 @@
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="G84" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H84" s="10">
         <f>(H83 / J73)</f>
@@ -4427,7 +6462,7 @@
       <c r="K84" s="10"/>
       <c r="L84" s="4"/>
       <c r="M84" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N84" s="10">
         <f>(N83 / P73)</f>
@@ -4440,1233 +6475,949 @@
       <c r="P84" s="10"/>
       <c r="Q84" s="10"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I90" t="s">
+    <row r="159" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="O159" t="s">
+        <v>24</v>
+      </c>
+      <c r="P159" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="P160" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>19</v>
+      </c>
+      <c r="R160" t="s">
+        <v>18</v>
+      </c>
+      <c r="S160" t="s">
+        <v>20</v>
+      </c>
+      <c r="T160" t="s">
+        <v>21</v>
+      </c>
+      <c r="U160" t="s">
+        <v>12</v>
+      </c>
+      <c r="V160" t="s">
+        <v>22</v>
+      </c>
+      <c r="W160" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="U161">
+        <v>60</v>
+      </c>
+      <c r="V161" t="e">
+        <f>T161/Q161</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W161" t="e">
+        <f>R161/S161</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="162" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="U162">
+        <v>60</v>
+      </c>
+      <c r="V162" t="e">
+        <f t="shared" ref="V162:V170" si="24">T162/Q162</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W162" t="e">
+        <f t="shared" ref="W162:W170" si="25">R162/S162</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="163" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="U163">
+        <v>60</v>
+      </c>
+      <c r="V163" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W163" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="164" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="U164">
+        <v>60</v>
+      </c>
+      <c r="V164" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W164" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="165" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="U165">
+        <v>60</v>
+      </c>
+      <c r="V165" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W165" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="166" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="U166">
+        <v>60</v>
+      </c>
+      <c r="V166" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="167" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="U167">
+        <v>60</v>
+      </c>
+      <c r="V167" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W167" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="168" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="G168" t="s">
+        <v>32</v>
+      </c>
+      <c r="H168" t="s">
+        <v>26</v>
+      </c>
+      <c r="U168">
+        <v>60</v>
+      </c>
+      <c r="V168" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W168" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="169" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="H169" t="s">
+        <v>15</v>
+      </c>
+      <c r="I169" t="s">
+        <v>6</v>
+      </c>
+      <c r="J169" t="s">
+        <v>7</v>
+      </c>
+      <c r="K169" t="s">
+        <v>12</v>
+      </c>
+      <c r="L169" t="s">
+        <v>16</v>
+      </c>
+      <c r="U169">
+        <v>60</v>
+      </c>
+      <c r="V169" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W169" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="170" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="I170">
+        <v>154936</v>
+      </c>
+      <c r="J170">
+        <v>102258</v>
+      </c>
+      <c r="K170">
+        <v>60</v>
+      </c>
+      <c r="L170">
+        <f>J170/I170</f>
+        <v>0.66000154902669494</v>
+      </c>
+      <c r="U170">
+        <v>60</v>
+      </c>
+      <c r="V170" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W170" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="171" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="I171">
+        <v>164326</v>
+      </c>
+      <c r="J171">
+        <v>103016</v>
+      </c>
+      <c r="K171">
+        <v>60</v>
+      </c>
+      <c r="L171">
+        <f t="shared" ref="L171:L179" si="26">J171/I171</f>
+        <v>0.62690018621520638</v>
+      </c>
+    </row>
+    <row r="172" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <v>155460</v>
+      </c>
+      <c r="J172">
+        <v>102298</v>
+      </c>
+      <c r="K172">
+        <v>60</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="26"/>
+        <v>0.65803422102148468</v>
+      </c>
+    </row>
+    <row r="173" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="I173">
+        <v>159334</v>
+      </c>
+      <c r="J173">
+        <v>102523</v>
+      </c>
+      <c r="K173">
+        <v>60</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="26"/>
+        <v>0.64344709854770488</v>
+      </c>
+    </row>
+    <row r="174" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="I174">
+        <v>162086</v>
+      </c>
+      <c r="J174">
+        <v>102190</v>
+      </c>
+      <c r="K174">
+        <v>60</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="26"/>
+        <v>0.630467776365633</v>
+      </c>
+      <c r="O174" t="s">
+        <v>24</v>
+      </c>
+      <c r="P174" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="I175">
+        <v>153438</v>
+      </c>
+      <c r="J175">
+        <v>102627</v>
+      </c>
+      <c r="K175">
+        <v>60</v>
+      </c>
+      <c r="L175">
+        <f t="shared" si="26"/>
+        <v>0.66884995894107069</v>
+      </c>
+      <c r="P175" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>19</v>
+      </c>
+      <c r="R175" t="s">
+        <v>18</v>
+      </c>
+      <c r="S175" t="s">
+        <v>20</v>
+      </c>
+      <c r="T175" t="s">
+        <v>21</v>
+      </c>
+      <c r="U175" t="s">
+        <v>12</v>
+      </c>
+      <c r="V175" t="s">
+        <v>22</v>
+      </c>
+      <c r="W175" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="I176">
+        <v>155470</v>
+      </c>
+      <c r="J176">
+        <v>102127</v>
+      </c>
+      <c r="K176">
+        <v>60</v>
+      </c>
+      <c r="L176">
+        <f t="shared" si="26"/>
+        <v>0.65689200488840294</v>
+      </c>
+      <c r="U176">
+        <v>60</v>
+      </c>
+      <c r="V176" t="e">
+        <f t="shared" ref="V176:V185" si="27">T176/Q176</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W176" t="e">
+        <f t="shared" ref="W176:W185" si="28">R176/S176</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="177" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="I177">
+        <v>157383</v>
+      </c>
+      <c r="J177">
+        <v>102545</v>
+      </c>
+      <c r="K177">
+        <v>60</v>
+      </c>
+      <c r="L177">
+        <f t="shared" si="26"/>
+        <v>0.65156338359289123</v>
+      </c>
+      <c r="U177">
+        <v>60</v>
+      </c>
+      <c r="V177" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W177" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="178" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="I178">
+        <v>158422</v>
+      </c>
+      <c r="J178">
+        <v>102367</v>
+      </c>
+      <c r="K178">
+        <v>60</v>
+      </c>
+      <c r="L178">
+        <f t="shared" si="26"/>
+        <v>0.64616656777467774</v>
+      </c>
+      <c r="U178">
+        <v>60</v>
+      </c>
+      <c r="V178" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W178" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="179" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <v>156690</v>
+      </c>
+      <c r="J179">
+        <v>101873</v>
+      </c>
+      <c r="K179">
+        <v>60</v>
+      </c>
+      <c r="L179">
+        <f t="shared" si="26"/>
+        <v>0.65015635969110985</v>
+      </c>
+      <c r="U179">
+        <v>60</v>
+      </c>
+      <c r="V179" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W179" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="180" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="U180">
+        <v>60</v>
+      </c>
+      <c r="V180" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W180" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="181" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="G181" t="s">
         <v>29</v>
       </c>
-      <c r="J90" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J91" t="s">
+      <c r="H181" t="s">
+        <v>30</v>
+      </c>
+      <c r="U181">
+        <v>60</v>
+      </c>
+      <c r="V181" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W181" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="182" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="H182" t="s">
         <v>15</v>
       </c>
-      <c r="K91" t="s">
-        <v>19</v>
-      </c>
-      <c r="L91" t="s">
-        <v>18</v>
-      </c>
-      <c r="M91" t="s">
-        <v>20</v>
-      </c>
-      <c r="N91" t="s">
-        <v>21</v>
-      </c>
-      <c r="O91" t="s">
+      <c r="I182" t="s">
+        <v>6</v>
+      </c>
+      <c r="J182" t="s">
+        <v>7</v>
+      </c>
+      <c r="K182" t="s">
         <v>12</v>
       </c>
-      <c r="P91" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K92">
-        <v>116917</v>
-      </c>
-      <c r="L92">
-        <v>49160</v>
-      </c>
-      <c r="M92">
-        <v>115421</v>
-      </c>
-      <c r="N92">
-        <v>49486</v>
-      </c>
-      <c r="O92">
-        <v>60</v>
-      </c>
-      <c r="P92">
-        <f t="shared" ref="P92:P101" si="12">N92/K92</f>
-        <v>0.42325752456871113</v>
-      </c>
-      <c r="Q92">
-        <f t="shared" ref="Q92:Q101" si="13">L92/M92</f>
-        <v>0.42591902686686134</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K93">
-        <v>128640</v>
-      </c>
-      <c r="L93">
-        <v>49450</v>
-      </c>
-      <c r="M93">
-        <v>135640</v>
-      </c>
-      <c r="N93">
-        <v>49357</v>
-      </c>
-      <c r="O93">
-        <v>60</v>
-      </c>
-      <c r="P93">
-        <f t="shared" si="12"/>
-        <v>0.38368314676616916</v>
-      </c>
-      <c r="Q93">
-        <f t="shared" si="13"/>
-        <v>0.36456797404895314</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K94">
-        <v>128870</v>
-      </c>
-      <c r="L94">
-        <v>48971</v>
-      </c>
-      <c r="M94">
-        <v>117693</v>
-      </c>
-      <c r="N94">
-        <v>49168</v>
-      </c>
-      <c r="O94">
-        <v>60</v>
-      </c>
-      <c r="P94">
-        <f t="shared" si="12"/>
-        <v>0.38153177620858231</v>
-      </c>
-      <c r="Q94">
-        <f t="shared" si="13"/>
-        <v>0.41609101645807312</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K95">
-        <v>118541</v>
-      </c>
-      <c r="L95">
-        <v>49418</v>
-      </c>
-      <c r="M95">
-        <v>113930</v>
-      </c>
-      <c r="N95">
-        <v>49074</v>
-      </c>
-      <c r="O95">
-        <v>60</v>
-      </c>
-      <c r="P95">
-        <f t="shared" si="12"/>
-        <v>0.4139833475337647</v>
-      </c>
-      <c r="Q95">
-        <f t="shared" si="13"/>
-        <v>0.43375757043798824</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K96">
-        <v>112729</v>
-      </c>
-      <c r="L96">
-        <v>49276</v>
-      </c>
-      <c r="M96">
-        <v>110793</v>
-      </c>
-      <c r="N96">
-        <v>49375</v>
-      </c>
-      <c r="O96">
-        <v>60</v>
-      </c>
-      <c r="P96">
-        <f t="shared" si="12"/>
-        <v>0.43799732100879102</v>
-      </c>
-      <c r="Q96">
-        <f t="shared" si="13"/>
-        <v>0.44475734026517921</v>
-      </c>
-    </row>
-    <row r="97" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="K97">
-        <v>122020</v>
-      </c>
-      <c r="L97">
-        <v>48514</v>
-      </c>
-      <c r="M97">
-        <v>111709</v>
-      </c>
-      <c r="N97">
-        <v>48354</v>
-      </c>
-      <c r="O97">
-        <v>60</v>
-      </c>
-      <c r="P97">
-        <f t="shared" si="12"/>
-        <v>0.39627929847565974</v>
-      </c>
-      <c r="Q97">
-        <f t="shared" si="13"/>
-        <v>0.43428909040453323</v>
-      </c>
-    </row>
-    <row r="98" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="K98">
-        <v>129063</v>
-      </c>
-      <c r="L98">
-        <v>48813</v>
-      </c>
-      <c r="M98">
-        <v>129300</v>
-      </c>
-      <c r="N98">
-        <v>48902</v>
-      </c>
-      <c r="O98">
-        <v>60</v>
-      </c>
-      <c r="P98">
-        <f t="shared" si="12"/>
-        <v>0.37890022702091225</v>
-      </c>
-      <c r="Q98">
-        <f t="shared" si="13"/>
-        <v>0.37751740139211137</v>
-      </c>
-    </row>
-    <row r="99" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="K99">
-        <v>120443</v>
-      </c>
-      <c r="L99">
-        <v>49443</v>
-      </c>
-      <c r="M99">
-        <v>117919</v>
-      </c>
-      <c r="N99">
-        <v>49337</v>
-      </c>
-      <c r="O99">
-        <v>60</v>
-      </c>
-      <c r="P99">
-        <f t="shared" si="12"/>
-        <v>0.40962945127570716</v>
-      </c>
-      <c r="Q99">
-        <f t="shared" si="13"/>
-        <v>0.41929629661038509</v>
-      </c>
-    </row>
-    <row r="100" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="K100">
-        <v>123335</v>
-      </c>
-      <c r="L100">
-        <v>49131</v>
-      </c>
-      <c r="M100">
-        <v>129777</v>
-      </c>
-      <c r="N100">
-        <v>49381</v>
-      </c>
-      <c r="O100">
-        <v>60</v>
-      </c>
-      <c r="P100">
-        <f t="shared" si="12"/>
-        <v>0.40038107593140632</v>
-      </c>
-      <c r="Q100">
-        <f t="shared" si="13"/>
-        <v>0.37858017984696823</v>
-      </c>
-    </row>
-    <row r="101" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="K101">
-        <v>111582</v>
-      </c>
-      <c r="L101">
-        <v>48871</v>
-      </c>
-      <c r="M101">
-        <v>121674</v>
-      </c>
-      <c r="N101">
-        <v>48897</v>
-      </c>
-      <c r="O101">
-        <v>60</v>
-      </c>
-      <c r="P101">
-        <f t="shared" si="12"/>
-        <v>0.43821584126472013</v>
-      </c>
-      <c r="Q101">
-        <f t="shared" si="13"/>
-        <v>0.40165524269770042</v>
-      </c>
-    </row>
-    <row r="105" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I105" t="s">
-        <v>25</v>
-      </c>
-      <c r="J105" t="s">
+      <c r="L182" t="s">
+        <v>16</v>
+      </c>
+      <c r="U182">
+        <v>60</v>
+      </c>
+      <c r="V182" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W182" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="183" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="I183">
+        <v>174227</v>
+      </c>
+      <c r="J183">
+        <v>42694</v>
+      </c>
+      <c r="K183">
+        <v>60</v>
+      </c>
+      <c r="L183">
+        <f>J183/I183</f>
+        <v>0.24504812686896979</v>
+      </c>
+      <c r="U183">
+        <v>60</v>
+      </c>
+      <c r="V183" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W183" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="184" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="K184">
+        <v>60</v>
+      </c>
+      <c r="L184" t="e">
+        <f t="shared" ref="L184:L192" si="29">J184/I184</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U184">
+        <v>60</v>
+      </c>
+      <c r="V184" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W184" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="185" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="K185">
+        <v>60</v>
+      </c>
+      <c r="L185" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U185">
+        <v>60</v>
+      </c>
+      <c r="V185" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W185" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="186" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="K186">
+        <v>60</v>
+      </c>
+      <c r="L186" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="187" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="K187">
+        <v>60</v>
+      </c>
+      <c r="L187" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="188" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="K188">
+        <v>60</v>
+      </c>
+      <c r="L188" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="189" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="K189">
+        <v>60</v>
+      </c>
+      <c r="L189" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="190" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="K190">
+        <v>60</v>
+      </c>
+      <c r="L190" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="191" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="K191">
+        <v>60</v>
+      </c>
+      <c r="L191" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="192" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="K192">
+        <v>60</v>
+      </c>
+      <c r="L192" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="196" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G196" t="s">
+        <v>31</v>
+      </c>
+      <c r="H196" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="H197" t="s">
+        <v>15</v>
+      </c>
+      <c r="I197" t="s">
+        <v>6</v>
+      </c>
+      <c r="J197" t="s">
+        <v>7</v>
+      </c>
+      <c r="K197" t="s">
+        <v>12</v>
+      </c>
+      <c r="L197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I198">
+        <v>43454</v>
+      </c>
+      <c r="J198">
+        <v>42933</v>
+      </c>
+      <c r="K198">
+        <v>60</v>
+      </c>
+      <c r="L198">
+        <f>J198/I198</f>
+        <v>0.9880103097528421</v>
+      </c>
+    </row>
+    <row r="199" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I199">
+        <v>43195</v>
+      </c>
+      <c r="J199">
+        <v>42639</v>
+      </c>
+      <c r="K199">
+        <v>60</v>
+      </c>
+      <c r="L199">
+        <f t="shared" ref="L199:L207" si="30">J199/I199</f>
+        <v>0.98712813983099901</v>
+      </c>
+    </row>
+    <row r="200" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I200">
+        <v>38724</v>
+      </c>
+      <c r="J200">
+        <v>38270</v>
+      </c>
+      <c r="K200">
+        <v>60</v>
+      </c>
+      <c r="L200">
+        <f t="shared" si="30"/>
+        <v>0.98827600454498499</v>
+      </c>
+    </row>
+    <row r="201" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I201">
+        <v>39175</v>
+      </c>
+      <c r="J201">
+        <v>38746</v>
+      </c>
+      <c r="K201">
+        <v>60</v>
+      </c>
+      <c r="L201">
+        <f t="shared" si="30"/>
+        <v>0.98904913848117426</v>
+      </c>
+    </row>
+    <row r="202" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I202">
+        <v>39313</v>
+      </c>
+      <c r="J202">
+        <v>38991</v>
+      </c>
+      <c r="K202">
+        <v>60</v>
+      </c>
+      <c r="L202">
+        <f t="shared" si="30"/>
+        <v>0.9918093251596164</v>
+      </c>
+    </row>
+    <row r="203" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I203">
+        <v>38881</v>
+      </c>
+      <c r="J203">
+        <v>38157</v>
+      </c>
+      <c r="K203">
+        <v>60</v>
+      </c>
+      <c r="L203">
+        <f t="shared" si="30"/>
+        <v>0.98137907975617911</v>
+      </c>
+    </row>
+    <row r="204" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I204">
+        <v>38794</v>
+      </c>
+      <c r="J204">
+        <v>38436</v>
+      </c>
+      <c r="K204">
+        <v>60</v>
+      </c>
+      <c r="L204">
+        <f t="shared" si="30"/>
+        <v>0.99077176883023144</v>
+      </c>
+    </row>
+    <row r="205" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I205">
+        <v>44121</v>
+      </c>
+      <c r="J205">
+        <v>43520</v>
+      </c>
+      <c r="K205">
+        <v>60</v>
+      </c>
+      <c r="L205">
+        <f t="shared" si="30"/>
+        <v>0.98637836857732142</v>
+      </c>
+    </row>
+    <row r="206" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I206">
+        <v>39369</v>
+      </c>
+      <c r="J206">
+        <v>38880</v>
+      </c>
+      <c r="K206">
+        <v>60</v>
+      </c>
+      <c r="L206">
+        <f t="shared" si="30"/>
+        <v>0.98757905966623483</v>
+      </c>
+    </row>
+    <row r="207" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I207">
+        <v>38785</v>
+      </c>
+      <c r="J207">
+        <v>38354</v>
+      </c>
+      <c r="K207">
+        <v>60</v>
+      </c>
+      <c r="L207">
+        <f t="shared" si="30"/>
+        <v>0.98888745649091148</v>
+      </c>
+    </row>
+    <row r="211" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G211" t="s">
+        <v>32</v>
+      </c>
+      <c r="H211" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="J106" t="s">
+    <row r="212" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="H212" t="s">
         <v>15</v>
       </c>
-      <c r="K106" t="s">
-        <v>19</v>
-      </c>
-      <c r="L106" t="s">
-        <v>18</v>
-      </c>
-      <c r="M106" t="s">
-        <v>20</v>
-      </c>
-      <c r="N106" t="s">
-        <v>21</v>
-      </c>
-      <c r="O106" t="s">
+      <c r="I212" t="s">
+        <v>6</v>
+      </c>
+      <c r="J212" t="s">
+        <v>7</v>
+      </c>
+      <c r="K212" t="s">
         <v>12</v>
       </c>
-      <c r="P106" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="O107">
-        <v>60</v>
-      </c>
-      <c r="P107" t="e">
-        <f>N107/K107</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q107" t="e">
-        <f>L107/M107</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="108" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="O108">
-        <v>60</v>
-      </c>
-      <c r="P108" t="e">
-        <f t="shared" ref="P108:P117" si="14">N108/K108</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q108" t="e">
-        <f t="shared" ref="Q108:Q117" si="15">L108/M108</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="109" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="O109">
-        <v>60</v>
-      </c>
-      <c r="P109" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q109" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="110" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="O110">
-        <v>60</v>
-      </c>
-      <c r="P110" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q110" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="111" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="O111">
-        <v>60</v>
-      </c>
-      <c r="P111" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q111" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="112" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="O112">
-        <v>60</v>
-      </c>
-      <c r="P112" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q112" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O113">
-        <v>60</v>
-      </c>
-      <c r="P113" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q113" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>33</v>
-      </c>
-      <c r="B114" t="s">
-        <v>27</v>
-      </c>
-      <c r="O114">
-        <v>60</v>
-      </c>
-      <c r="P114" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q114" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="L212" t="s">
         <v>16</v>
       </c>
-      <c r="O115">
-        <v>60</v>
-      </c>
-      <c r="P115" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q115" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C116">
+    </row>
+    <row r="213" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I213">
         <v>154936</v>
       </c>
-      <c r="D116">
+      <c r="J213">
         <v>102258</v>
       </c>
-      <c r="E116">
-        <v>60</v>
-      </c>
-      <c r="F116">
-        <f>D116/C116</f>
+      <c r="K213">
+        <v>60</v>
+      </c>
+      <c r="L213">
+        <f>J213/I213</f>
         <v>0.66000154902669494</v>
       </c>
-      <c r="O116">
-        <v>60</v>
-      </c>
-      <c r="P116" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q116" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C117">
+    </row>
+    <row r="214" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I214">
         <v>164326</v>
       </c>
-      <c r="D117">
+      <c r="J214">
         <v>103016</v>
       </c>
-      <c r="E117">
-        <v>60</v>
-      </c>
-      <c r="F117">
-        <f t="shared" ref="F117:F125" si="16">D117/C117</f>
+      <c r="K214">
+        <v>60</v>
+      </c>
+      <c r="L214">
+        <f t="shared" ref="L214:L222" si="31">J214/I214</f>
         <v>0.62690018621520638</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C118">
+    <row r="215" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I215">
         <v>155460</v>
       </c>
-      <c r="D118">
+      <c r="J215">
         <v>102298</v>
       </c>
-      <c r="E118">
-        <v>60</v>
-      </c>
-      <c r="F118">
-        <f t="shared" si="16"/>
+      <c r="K215">
+        <v>60</v>
+      </c>
+      <c r="L215">
+        <f t="shared" si="31"/>
         <v>0.65803422102148468</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C119">
+    <row r="216" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I216">
         <v>159334</v>
       </c>
-      <c r="D119">
+      <c r="J216">
         <v>102523</v>
       </c>
-      <c r="E119">
-        <v>60</v>
-      </c>
-      <c r="F119">
-        <f t="shared" si="16"/>
+      <c r="K216">
+        <v>60</v>
+      </c>
+      <c r="L216">
+        <f t="shared" si="31"/>
         <v>0.64344709854770488</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C120">
+    <row r="217" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I217">
         <v>162086</v>
       </c>
-      <c r="D120">
+      <c r="J217">
         <v>102190</v>
       </c>
-      <c r="E120">
-        <v>60</v>
-      </c>
-      <c r="F120">
-        <f t="shared" si="16"/>
+      <c r="K217">
+        <v>60</v>
+      </c>
+      <c r="L217">
+        <f t="shared" si="31"/>
         <v>0.630467776365633</v>
       </c>
-      <c r="I120" t="s">
-        <v>25</v>
-      </c>
-      <c r="J120" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C121">
+    </row>
+    <row r="218" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I218">
         <v>153438</v>
       </c>
-      <c r="D121">
+      <c r="J218">
         <v>102627</v>
       </c>
-      <c r="E121">
-        <v>60</v>
-      </c>
-      <c r="F121">
-        <f t="shared" si="16"/>
+      <c r="K218">
+        <v>60</v>
+      </c>
+      <c r="L218">
+        <f t="shared" si="31"/>
         <v>0.66884995894107069</v>
       </c>
-      <c r="J121" t="s">
-        <v>15</v>
-      </c>
-      <c r="K121" t="s">
-        <v>19</v>
-      </c>
-      <c r="L121" t="s">
-        <v>18</v>
-      </c>
-      <c r="M121" t="s">
-        <v>20</v>
-      </c>
-      <c r="N121" t="s">
-        <v>21</v>
-      </c>
-      <c r="O121" t="s">
-        <v>12</v>
-      </c>
-      <c r="P121" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C122">
+    </row>
+    <row r="219" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I219">
         <v>155470</v>
       </c>
-      <c r="D122">
+      <c r="J219">
         <v>102127</v>
       </c>
-      <c r="E122">
-        <v>60</v>
-      </c>
-      <c r="F122">
-        <f t="shared" si="16"/>
+      <c r="K219">
+        <v>60</v>
+      </c>
+      <c r="L219">
+        <f t="shared" si="31"/>
         <v>0.65689200488840294</v>
       </c>
-      <c r="O122">
-        <v>60</v>
-      </c>
-      <c r="P122" t="e">
-        <f>N122/K122</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q122" t="e">
-        <f>L122/M122</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C123">
+    </row>
+    <row r="220" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I220">
         <v>157383</v>
       </c>
-      <c r="D123">
+      <c r="J220">
         <v>102545</v>
       </c>
-      <c r="E123">
-        <v>60</v>
-      </c>
-      <c r="F123">
-        <f t="shared" si="16"/>
+      <c r="K220">
+        <v>60</v>
+      </c>
+      <c r="L220">
+        <f t="shared" si="31"/>
         <v>0.65156338359289123</v>
       </c>
-      <c r="O123">
-        <v>60</v>
-      </c>
-      <c r="P123" t="e">
-        <f>N123/K123</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q123" t="e">
-        <f>L123/M123</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C124">
+    </row>
+    <row r="221" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I221">
         <v>158422</v>
       </c>
-      <c r="D124">
+      <c r="J221">
         <v>102367</v>
       </c>
-      <c r="E124">
-        <v>60</v>
-      </c>
-      <c r="F124">
-        <f t="shared" si="16"/>
+      <c r="K221">
+        <v>60</v>
+      </c>
+      <c r="L221">
+        <f t="shared" si="31"/>
         <v>0.64616656777467774</v>
       </c>
-      <c r="O124">
-        <v>60</v>
-      </c>
-      <c r="P124" t="e">
-        <f>N124/K124</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q124" t="e">
-        <f>L124/M124</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C125">
+    </row>
+    <row r="222" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I222">
         <v>156690</v>
       </c>
-      <c r="D125">
+      <c r="J222">
         <v>101873</v>
       </c>
-      <c r="E125">
-        <v>60</v>
-      </c>
-      <c r="F125">
-        <f t="shared" si="16"/>
-        <v>0.65015635969110985</v>
-      </c>
-      <c r="O125">
-        <v>60</v>
-      </c>
-      <c r="P125" t="e">
-        <f>N125/K125</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q125" t="e">
-        <f>L125/M125</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O126">
-        <v>60</v>
-      </c>
-      <c r="P126" t="e">
-        <f>N126/K126</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q126" t="e">
-        <f>L126/M126</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>30</v>
-      </c>
-      <c r="B127" t="s">
-        <v>31</v>
-      </c>
-      <c r="O127">
-        <v>60</v>
-      </c>
-      <c r="P127" t="e">
-        <f>N127/K127</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q127" t="e">
-        <f>L127/M127</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>15</v>
-      </c>
-      <c r="C128" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" t="s">
-        <v>7</v>
-      </c>
-      <c r="E128" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="O128">
-        <v>60</v>
-      </c>
-      <c r="P128" t="e">
-        <f>N128/K128</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q128" t="e">
-        <f>L128/M128</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C129">
-        <v>174227</v>
-      </c>
-      <c r="D129">
-        <v>42694</v>
-      </c>
-      <c r="E129">
-        <v>60</v>
-      </c>
-      <c r="F129">
-        <f>D129/C129</f>
-        <v>0.24504812686896979</v>
-      </c>
-      <c r="O129">
-        <v>60</v>
-      </c>
-      <c r="P129" t="e">
-        <f>N129/K129</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q129" t="e">
-        <f>L129/M129</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E130">
-        <v>60</v>
-      </c>
-      <c r="F130" t="e">
-        <f t="shared" ref="F130:F138" si="17">D130/C130</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O130">
-        <v>60</v>
-      </c>
-      <c r="P130" t="e">
-        <f>N130/K130</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q130" t="e">
-        <f>L130/M130</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E131">
-        <v>60</v>
-      </c>
-      <c r="F131" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O131">
-        <v>60</v>
-      </c>
-      <c r="P131" t="e">
-        <f>N131/K131</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q131" t="e">
-        <f>L131/M131</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E132">
-        <v>60</v>
-      </c>
-      <c r="F132" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E133">
-        <v>60</v>
-      </c>
-      <c r="F133" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E134">
-        <v>60</v>
-      </c>
-      <c r="F134" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E135">
-        <v>60</v>
-      </c>
-      <c r="F135" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E136">
-        <v>60</v>
-      </c>
-      <c r="F136" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E137">
-        <v>60</v>
-      </c>
-      <c r="F137" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E138">
-        <v>60</v>
-      </c>
-      <c r="F138" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>32</v>
-      </c>
-      <c r="B142" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>15</v>
-      </c>
-      <c r="C143" t="s">
-        <v>6</v>
-      </c>
-      <c r="D143" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C144">
-        <v>43454</v>
-      </c>
-      <c r="D144">
-        <v>42933</v>
-      </c>
-      <c r="E144">
-        <v>60</v>
-      </c>
-      <c r="F144">
-        <f>D144/C144</f>
-        <v>0.9880103097528421</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C145">
-        <v>43195</v>
-      </c>
-      <c r="D145">
-        <v>42639</v>
-      </c>
-      <c r="E145">
-        <v>60</v>
-      </c>
-      <c r="F145">
-        <f t="shared" ref="F145:F153" si="18">D145/C145</f>
-        <v>0.98712813983099901</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C146">
-        <v>38724</v>
-      </c>
-      <c r="D146">
-        <v>38270</v>
-      </c>
-      <c r="E146">
-        <v>60</v>
-      </c>
-      <c r="F146">
-        <f t="shared" si="18"/>
-        <v>0.98827600454498499</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C147">
-        <v>39175</v>
-      </c>
-      <c r="D147">
-        <v>38746</v>
-      </c>
-      <c r="E147">
-        <v>60</v>
-      </c>
-      <c r="F147">
-        <f t="shared" si="18"/>
-        <v>0.98904913848117426</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C148">
-        <v>39313</v>
-      </c>
-      <c r="D148">
-        <v>38991</v>
-      </c>
-      <c r="E148">
-        <v>60</v>
-      </c>
-      <c r="F148">
-        <f t="shared" si="18"/>
-        <v>0.9918093251596164</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C149">
-        <v>38881</v>
-      </c>
-      <c r="D149">
-        <v>38157</v>
-      </c>
-      <c r="E149">
-        <v>60</v>
-      </c>
-      <c r="F149">
-        <f t="shared" si="18"/>
-        <v>0.98137907975617911</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C150">
-        <v>38794</v>
-      </c>
-      <c r="D150">
-        <v>38436</v>
-      </c>
-      <c r="E150">
-        <v>60</v>
-      </c>
-      <c r="F150">
-        <f t="shared" si="18"/>
-        <v>0.99077176883023144</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C151">
-        <v>44121</v>
-      </c>
-      <c r="D151">
-        <v>43520</v>
-      </c>
-      <c r="E151">
-        <v>60</v>
-      </c>
-      <c r="F151">
-        <f t="shared" si="18"/>
-        <v>0.98637836857732142</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C152">
-        <v>39369</v>
-      </c>
-      <c r="D152">
-        <v>38880</v>
-      </c>
-      <c r="E152">
-        <v>60</v>
-      </c>
-      <c r="F152">
-        <f t="shared" si="18"/>
-        <v>0.98757905966623483</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C153">
-        <v>38785</v>
-      </c>
-      <c r="D153">
-        <v>38354</v>
-      </c>
-      <c r="E153">
-        <v>60</v>
-      </c>
-      <c r="F153">
-        <f t="shared" si="18"/>
-        <v>0.98888745649091148</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>33</v>
-      </c>
-      <c r="B157" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>15</v>
-      </c>
-      <c r="C158" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" t="s">
-        <v>7</v>
-      </c>
-      <c r="E158" t="s">
-        <v>12</v>
-      </c>
-      <c r="F158" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C159">
-        <v>154936</v>
-      </c>
-      <c r="D159">
-        <v>102258</v>
-      </c>
-      <c r="E159">
-        <v>60</v>
-      </c>
-      <c r="F159">
-        <f>D159/C159</f>
-        <v>0.66000154902669494</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C160">
-        <v>164326</v>
-      </c>
-      <c r="D160">
-        <v>103016</v>
-      </c>
-      <c r="E160">
-        <v>60</v>
-      </c>
-      <c r="F160">
-        <f t="shared" ref="F160:F168" si="19">D160/C160</f>
-        <v>0.62690018621520638</v>
-      </c>
-    </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C161">
-        <v>155460</v>
-      </c>
-      <c r="D161">
-        <v>102298</v>
-      </c>
-      <c r="E161">
-        <v>60</v>
-      </c>
-      <c r="F161">
-        <f t="shared" si="19"/>
-        <v>0.65803422102148468</v>
-      </c>
-    </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C162">
-        <v>159334</v>
-      </c>
-      <c r="D162">
-        <v>102523</v>
-      </c>
-      <c r="E162">
-        <v>60</v>
-      </c>
-      <c r="F162">
-        <f t="shared" si="19"/>
-        <v>0.64344709854770488</v>
-      </c>
-    </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C163">
-        <v>162086</v>
-      </c>
-      <c r="D163">
-        <v>102190</v>
-      </c>
-      <c r="E163">
-        <v>60</v>
-      </c>
-      <c r="F163">
-        <f t="shared" si="19"/>
-        <v>0.630467776365633</v>
-      </c>
-    </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C164">
-        <v>153438</v>
-      </c>
-      <c r="D164">
-        <v>102627</v>
-      </c>
-      <c r="E164">
-        <v>60</v>
-      </c>
-      <c r="F164">
-        <f t="shared" si="19"/>
-        <v>0.66884995894107069</v>
-      </c>
-    </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C165">
-        <v>155470</v>
-      </c>
-      <c r="D165">
-        <v>102127</v>
-      </c>
-      <c r="E165">
-        <v>60</v>
-      </c>
-      <c r="F165">
-        <f t="shared" si="19"/>
-        <v>0.65689200488840294</v>
-      </c>
-    </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C166">
-        <v>157383</v>
-      </c>
-      <c r="D166">
-        <v>102545</v>
-      </c>
-      <c r="E166">
-        <v>60</v>
-      </c>
-      <c r="F166">
-        <f t="shared" si="19"/>
-        <v>0.65156338359289123</v>
-      </c>
-    </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C167">
-        <v>158422</v>
-      </c>
-      <c r="D167">
-        <v>102367</v>
-      </c>
-      <c r="E167">
-        <v>60</v>
-      </c>
-      <c r="F167">
-        <f t="shared" si="19"/>
-        <v>0.64616656777467774</v>
-      </c>
-    </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C168">
-        <v>156690</v>
-      </c>
-      <c r="D168">
-        <v>101873</v>
-      </c>
-      <c r="E168">
-        <v>60</v>
-      </c>
-      <c r="F168">
-        <f t="shared" si="19"/>
+      <c r="K222">
+        <v>60</v>
+      </c>
+      <c r="L222">
+        <f t="shared" si="31"/>
         <v>0.65015635969110985</v>
       </c>
     </row>
